--- a/data/income_statement/3digits/total/813_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/813_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>813-Landscape service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>813-Landscape service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>701575.0564300001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>626326.78935</v>
+        <v>626326.7893499999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>876115.0641099999</v>
+        <v>876115.06411</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>1150217.52194</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1757593.92076</v>
+        <v>1758463.08493</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2314112.84812</v>
+        <v>2321861.90827</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2807382.09486</v>
+        <v>2920320.31114</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3624958.74695</v>
+        <v>3625992.04667</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4825497.85278</v>
+        <v>4825497.852779999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4997580.27893</v>
+        <v>5091774.03325</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4329017.986529999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4385395.853159999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4721744.878</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>622725.6496199999</v>
+        <v>622725.64962</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>590904.6490399999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>857294.2148700001</v>
+        <v>857294.21487</v>
       </c>
       <c r="F6" s="48" t="n">
         <v>1134421.94241</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1733205.45841</v>
+        <v>1734070.17915</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2276687.25997</v>
+        <v>2284436.320119999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2763643.6424</v>
+        <v>2874660.32578</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3573210.5447</v>
+        <v>3574227.7462</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4762243.63925</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>4919576.19423</v>
+        <v>5013639.87946</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4190706.50695</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4242375.24263</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4561428.861</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2933.8842</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3208.536100000001</v>
+        <v>3208.5361</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>8930.825779999999</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>5907.65127</v>
+        <v>5907.651269999999</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>12245.21733</v>
@@ -1046,7 +962,7 @@
         <v>15746.37369</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>25224.85438</v>
+        <v>25282.34283</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>35831.92379</v>
@@ -1055,19 +971,24 @@
         <v>35549.17944</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>42454.9582</v>
+        <v>42458.4582</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>72745.13523999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>76972.28499000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>125429.088</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>75915.52261</v>
+        <v>75915.52261000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>32213.60421</v>
@@ -1079,31 +1000,36 @@
         <v>9887.928260000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12143.24502</v>
+        <v>12147.68845</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>21679.21446</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>18513.59808</v>
+        <v>20377.64253</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>15916.27846</v>
+        <v>15932.37668</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>27705.03409</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>35549.1265</v>
+        <v>35675.69559</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>65566.34434000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>66048.32553999999</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>34886.929</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1604.37192</v>
@@ -1118,31 +1044,36 @@
         <v>1713.02801</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2800.726</v>
+        <v>2801.726</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7051.823560000001</v>
+        <v>7051.82356</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6100.06593</v>
+        <v>6287.26318</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>5001.36938</v>
+        <v>5001.369380000001</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>13256.48873</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>35102.04189</v>
+        <v>35102.53749</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>21809.47109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>21849.8855</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>30346.163</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1441.09443</v>
@@ -1157,16 +1088,16 @@
         <v>1581.79655</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2753.25172</v>
+        <v>2754.25172</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>6659.99252</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3953.48892</v>
+        <v>4140.68617</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4017.81186</v>
+        <v>4017.811859999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>10869.18739</v>
@@ -1175,13 +1106,18 @@
         <v>28693.02204</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17388.65879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>17429.0732</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>28718.3</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>163.19974</v>
@@ -1211,16 +1147,21 @@
         <v>905.96752</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6145.020399999999</v>
+        <v>6145.0204</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>2741.22038</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>882.5119999999999</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0.07775</v>
@@ -1238,7 +1179,7 @@
         <v>29.73339</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>52.98828999999999</v>
+        <v>52.98829</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>147.49789</v>
@@ -1250,16 +1191,21 @@
         <v>1481.33382</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>263.99945</v>
+        <v>264.49505</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>1679.59192</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>745.351</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>699970.6845099999</v>
@@ -1268,40 +1214,45 @@
         <v>625299.53562</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>874396.4852399998</v>
+        <v>874396.4852400001</v>
       </c>
       <c r="F13" s="47" t="n">
         <v>1148504.49393</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1754793.19476</v>
+        <v>1755661.35893</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2307061.02456</v>
+        <v>2314810.08471</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2801282.02893</v>
+        <v>2914033.04796</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3619957.37757</v>
+        <v>3620990.67729</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4812241.36405</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4962478.23704</v>
+        <v>5056671.495759999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4307208.51544</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4363545.96766</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4691398.715</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>602260.1851700001</v>
+        <v>602260.18517</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>526431.73613</v>
@@ -1310,34 +1261,39 @@
         <v>738809.22257</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>959988.2822899999</v>
+        <v>959988.28229</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1495800.8644</v>
+        <v>1496490.90685</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1999307.06851</v>
+        <v>2006517.23011</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2471674.44347</v>
+        <v>2567625.56835</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3194586.06339</v>
+        <v>3196199.94736</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>4257864.18009</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4430730.65525</v>
+        <v>4525520.56762</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3805722.13542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3855409.91541</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4222962.264</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>13111.15609</v>
@@ -1358,7 +1314,7 @@
         <v>49743.95114</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>82531.15670000001</v>
+        <v>89287.16710999998</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>115221.72656</v>
@@ -1367,16 +1323,21 @@
         <v>172351.35846</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>225331.92272</v>
+        <v>225408.42477</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>252909.14528</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>276130.5503999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>282504.201</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>110071.67222</v>
@@ -1391,31 +1352,36 @@
         <v>215102.36871</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>323816.9527</v>
+        <v>324306.32972</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>302308.77292</v>
+        <v>302308.77792</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>502419.04959</v>
+        <v>516239.90546</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>569247.04573</v>
+        <v>569353.87095</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>633625.65596</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>690246.81449</v>
+        <v>696615.84676</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>829511.97407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>848743.5575799999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>867633.693</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>478793.67535</v>
@@ -1427,40 +1393,45 @@
         <v>582743.0419</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>694095.3776600001</v>
+        <v>694095.37766</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1123706.52702</v>
+        <v>1123907.19245</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1645056.64689</v>
+        <v>1652266.80349</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1883636.71388</v>
+        <v>1959010.97248</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2496595.61744</v>
+        <v>2498102.67619</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>3436926.42353</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3492246.62193</v>
+        <v>3580590.999979999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2699092.16929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2706244.86065</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3064388.623</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>283.68151</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>905.3923400000001</v>
+        <v>905.39234</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>520.44894</v>
@@ -1472,7 +1443,7 @@
         <v>6084.46675</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2197.697560000001</v>
+        <v>2197.69756</v>
       </c>
       <c r="I18" s="48" t="n">
         <v>3087.5233</v>
@@ -1487,19 +1458,24 @@
         <v>22905.29611</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>24208.84678</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>24290.94678</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8435.746999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>97710.49934000001</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>98867.79949</v>
+        <v>98867.79948999999</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>135587.26267</v>
@@ -1508,37 +1484,42 @@
         <v>188516.21164</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>258992.33036</v>
+        <v>259170.45208</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>307753.95605</v>
+        <v>308292.8546</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>329607.58546</v>
+        <v>346407.47961</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>425371.31418</v>
+        <v>424790.72993</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>554377.1839600001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>531747.5817900001</v>
+        <v>531150.9281400001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>501486.38002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>508136.05225</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>468436.451</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>64585.3735</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>81833.99712999999</v>
+        <v>81833.99713</v>
       </c>
       <c r="E20" s="47" t="n">
         <v>88507.64332999999</v>
@@ -1547,31 +1528,36 @@
         <v>114431.81376</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>153289.93087</v>
+        <v>153614.7346</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>186327.3823</v>
+        <v>186575.46911</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>213573.27571</v>
+        <v>227334.9678</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>283032.2527</v>
+        <v>283230.77348</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>334148.16374</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>403319.38077</v>
+        <v>404143.0796</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>413002.40997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>415776.28111</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>412362.802</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1.15717</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>681.25964</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>647.261</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>18786.90144</v>
@@ -1625,13 +1616,13 @@
         <v>34435.03623000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>49526.28703999999</v>
+        <v>49526.28704</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>52762.35742</v>
+        <v>52772.18131</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>54604.3536</v>
+        <v>62255.34322000001</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>87452.90451000001</v>
@@ -1640,22 +1631,27 @@
         <v>108039.97773</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>119540.92674</v>
+        <v>119559.1439</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>108458.92111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>109245.91255</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>108343.125</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>45797.31489</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>56877.34495999999</v>
+        <v>56877.34496</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>62129.21</v>
@@ -1664,31 +1660,36 @@
         <v>79934.02468999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>103583.93631</v>
+        <v>103908.74004</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>133064.047</v>
+        <v>133302.30992</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>158490.73075</v>
+        <v>164601.43322</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>194802.72229</v>
+        <v>195001.24307</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>225642.4382</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>282784.0278400001</v>
+        <v>283589.50951</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>303862.22922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>305849.10892</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>303372.416</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>33125.12584</v>
@@ -1697,43 +1698,48 @@
         <v>17033.80236</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>47079.61934</v>
+        <v>47079.61933999999</v>
       </c>
       <c r="F24" s="47" t="n">
         <v>74084.39787999999</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>105702.39949</v>
+        <v>105555.71748</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>121426.57375</v>
+        <v>121717.38549</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>116034.30975</v>
+        <v>119072.51181</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>142339.06148</v>
+        <v>141559.95645</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>220229.02022</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>128428.20102</v>
+        <v>127007.84854</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>88483.97005000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>92359.77113999998</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>56073.649</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>7883.74143</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>7915.234539999999</v>
+        <v>7915.234540000001</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>8073.60635</v>
@@ -1745,28 +1751,33 @@
         <v>15340.1252</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>16310.84356</v>
+        <v>16316.72431</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>20906.19151</v>
+        <v>21917.36255</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>27354.67247</v>
+        <v>27357.12926</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>95838.24688999999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>106645.61644</v>
+        <v>106128.51863</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>86836.12296000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>84925.20464</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>82737.315</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>130.22422</v>
@@ -1787,7 +1798,7 @@
         <v>378.93026</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>612.95313</v>
+        <v>699.31071</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>226.94696</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>1035.46014</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>256.801</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2.94013</v>
@@ -1838,13 +1854,18 @@
         <v>14351.83986</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>13686.41215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>13732.30325</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>631.55</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>3808.19182</v>
@@ -1859,31 +1880,36 @@
         <v>3481.1433</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4538.371529999999</v>
+        <v>4538.37153</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>8657.252980000001</v>
+        <v>8657.411749999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>6980.7434</v>
+        <v>7336.27905</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6992.23601</v>
+        <v>6994.6928</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>22887.43176</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>25332.35962</v>
+        <v>25355.03851</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16503.89465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16463.1178</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>15423.772</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>130.73481</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1877.02546</v>
@@ -1943,7 +1974,7 @@
         <v>552.3125600000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>850.25563</v>
+        <v>850.25603</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>923.15538</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>20824.50555000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1892.56</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>17.14285</v>
@@ -1982,7 +2018,7 @@
         <v>100.75978</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>60.03401</v>
+        <v>157.50722</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>226.59585</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>647.78376</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>772.377</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>189.62798</v>
@@ -2012,7 +2053,7 @@
         <v>609.41874</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>545.20944</v>
+        <v>545.2094400000001</v>
       </c>
       <c r="G32" s="48" t="n">
         <v>1261.76604</v>
@@ -2021,7 +2062,7 @@
         <v>1379.43641</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6442.96343</v>
+        <v>6466.94791</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>4737.35247</v>
@@ -2033,13 +2074,18 @@
         <v>25104.55435</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>15526.71677</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>13021.47697</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>39900.914</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>42.90816</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>118.74848</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>54.24481</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>47.111</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1815.68081</v>
@@ -2135,10 +2191,10 @@
         <v>4054.61958</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2890.8086</v>
+        <v>2896.53058</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>3757.05079</v>
+        <v>4204.87051</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>6149.491660000001</v>
@@ -2147,22 +2203,27 @@
         <v>17730.3</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>23904.34282</v>
+        <v>23364.56612</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>18307.62184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>18896.82907</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>23706.17</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>1617.02252</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3761.146999999999</v>
+        <v>3761.147</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>4242.2291</v>
@@ -2174,10 +2235,10 @@
         <v>2370.11017</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3964.39338</v>
+        <v>3982.37559</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>6244.272859999999</v>
+        <v>6291.86742</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>10683.91458</v>
@@ -2186,16 +2247,21 @@
         <v>40464.74675</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>49456.36601</v>
+        <v>49467.29046</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>55080.47523</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>47002.68095</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>52134.26</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>62.96506</v>
@@ -2216,7 +2282,7 @@
         <v>123.59453</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>654.1986999999999</v>
+        <v>655.10837</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>147.97461</v>
@@ -2228,13 +2294,18 @@
         <v>314.77389</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>579.01636</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>580.73056</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>438.149</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>1175.82616</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>30166.19573</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>4802.494</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>37.69369</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>115.576</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>221.15542</v>
@@ -2324,7 +2405,7 @@
         <v>1189.11694</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>663.4233899999999</v>
+        <v>663.42339</v>
       </c>
       <c r="G40" s="48" t="n">
         <v>965.22607</v>
@@ -2333,7 +2414,7 @@
         <v>1462.61826</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3379.05413</v>
+        <v>3405.74256</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>4337.00258</v>
@@ -2342,16 +2423,21 @@
         <v>9378.151230000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>27100.03751999999</v>
+        <v>27100.16468</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>19297.72716</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>11148.71572</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>30405.41</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>21.59256</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>157.07588</v>
@@ -2447,10 +2543,10 @@
         <v>735.91999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>606.70536</v>
+        <v>624.6875699999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1256.01339</v>
+        <v>1276.00985</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>2774.93524</v>
@@ -2459,16 +2555,21 @@
         <v>3435.71507</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3467.49582</v>
+        <v>3478.29311</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>4978.24973</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5047.752689999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>16348.121</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>14948.09165</v>
@@ -2483,31 +2584,36 @@
         <v>6257.512839999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6089.799289999999</v>
+        <v>6089.799290000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>14950.0922</v>
+        <v>14953.44243</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>13489.14113</v>
+        <v>15210.82253</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>22736.96067</v>
+        <v>22752.71835</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>46291.562</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>61692.10618</v>
+        <v>61726.32125</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>61619.18702</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>59271.04293</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>63848.958</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>14809.36019</v>
@@ -2519,34 +2625,39 @@
         <v>8859.1322</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6077.79986</v>
+        <v>6077.799859999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5858.18296</v>
+        <v>5858.182959999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>14791.43715</v>
+        <v>14794.78738</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>13088.16574</v>
+        <v>14809.84714</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>22517.6084</v>
+        <v>22533.36608</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>45629.04906</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>60246.72598</v>
+        <v>60280.94104999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>60243.19846</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>57890.38893</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>61330.904</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>138.73146</v>
@@ -2555,7 +2666,7 @@
         <v>16.5754</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>89.56589</v>
+        <v>89.56589000000001</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>179.71298</v>
@@ -2567,7 +2678,7 @@
         <v>158.65505</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>400.97539</v>
+        <v>400.9753900000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>219.35227</v>
@@ -2579,13 +2690,18 @@
         <v>1445.3802</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1375.98856</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1380.654</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2518.054</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>24443.7531</v>
@@ -2597,37 +2713,42 @@
         <v>41962.2985</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>74000.07048000001</v>
+        <v>74000.07047999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>112582.61523</v>
+        <v>112435.93322</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>118822.93173</v>
+        <v>119098.29178</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>117207.08727</v>
+        <v>119487.18441</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>136272.8587</v>
+        <v>135480.45278</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>229310.95836</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>123925.34527</v>
+        <v>121942.75546</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>58620.43076</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>71011.2519</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>22827.746</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>7908.314540000001</v>
+        <v>7908.31454</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>7086.32631</v>
@@ -2639,31 +2760,36 @@
         <v>8828.087240000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6404.36835</v>
+        <v>6404.368350000001</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>9638.40252</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>18151.36262</v>
+        <v>18450.62499</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>25529.29787</v>
+        <v>25608.57546</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>22762.31775</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>49616.37078</v>
+        <v>49634.39413</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>39802.15341</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>39759.05962</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>32922.374</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>221.32585</v>
@@ -2684,7 +2810,7 @@
         <v>812.32453</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1676.31428</v>
+        <v>1708.75473</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>396.44679</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>628.2252000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>98.803</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>7686.98869</v>
@@ -2714,37 +2845,42 @@
         <v>4033.52618</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>7732.610189999999</v>
+        <v>7732.61019</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6321.02292</v>
+        <v>6321.022920000001</v>
       </c>
       <c r="H50" s="48" t="n">
         <v>8826.07799</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>16475.04834</v>
+        <v>16741.87026</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>25132.85108</v>
+        <v>25212.12867</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>22076.31089</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>48154.577</v>
+        <v>48172.60034999999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>39173.92821</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>39130.83442</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>32823.571</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>7379.47272</v>
+        <v>7379.472720000001</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>3672.54678</v>
@@ -2759,28 +2895,33 @@
         <v>22777.98453</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>17663.54141</v>
+        <v>17664.52728</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>22298.65429</v>
+        <v>22444.23342</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>25724.54642</v>
+        <v>25787.49344</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>28453.81757</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>51307.47156000001</v>
+        <v>51517.38541</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>46782.87534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>47709.80587</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>30828.529</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,14 +2956,19 @@
       <c r="M52" s="48" t="n">
         <v>74.91578999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>133.581</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>435.8903100000001</v>
+        <v>435.89031</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>505.64526</v>
@@ -2840,25 +2986,30 @@
         <v>69.34341999999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1189.89752</v>
+        <v>1190.88073</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>754.49806</v>
+        <v>754.4980599999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>1779.02095</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>576.36221</v>
+        <v>576.41629</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>5341.69683</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>5350.627829999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1221.95</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>6943.58241</v>
@@ -2876,28 +3027,33 @@
         <v>22544.88433</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>17500.20977</v>
+        <v>17501.19564</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>21087.16714</v>
+        <v>21231.76306</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>24948.05229</v>
+        <v>25010.99931</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>26250.99841</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>50431.44619</v>
+        <v>50641.30596</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>41366.26272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>42284.26225</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>29472.998</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>24972.59492</v>
@@ -2912,37 +3068,42 @@
         <v>67156.38982000001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>96208.99905000001</v>
+        <v>96062.31703999999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>110797.79284</v>
+        <v>111072.16702</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>113059.7956</v>
+        <v>115493.57598</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>136077.61015</v>
+        <v>135301.5348</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>223619.45854</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>122234.24449</v>
+        <v>120059.76418</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>51639.70883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>63060.50565000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>24921.591</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>5985.066360000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4672.98438</v>
+        <v>4672.984380000001</v>
       </c>
       <c r="E56" s="47" t="n">
         <v>7892.91705</v>
@@ -2954,10 +3115,10 @@
         <v>21204.0613</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>27780.73234999999</v>
+        <v>27780.73235</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29014.79518</v>
+        <v>29597.82677</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>36732.69956</v>
@@ -2966,52 +3127,60 @@
         <v>61685.77301</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>39106.49203</v>
+        <v>39160.11111</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>38945.30284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>39711.27835</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>36100.207</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>18987.52856</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>8193.504089999999</v>
+        <v>8193.50409</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>6095.929110000001</v>
+        <v>6095.929109999999</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>52112.11265</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>75004.93775</v>
+        <v>74858.25574000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>83017.06048999999</v>
+        <v>83291.43466999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>84045.00042</v>
+        <v>85895.74920999999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>99344.91058999998</v>
+        <v>98568.83524</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>161933.68553</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>83127.75245999999</v>
+        <v>80899.65306999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>12694.40599</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>23349.2273</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-11178.616</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>396</v>
@@ -3044,28 +3216,31 @@
         <v>513</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>812</v>
+        <v>823</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>986</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1027</v>
+        <v>1065</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1126</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>